--- a/descriptions.xlsx
+++ b/descriptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Desktop\nb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Desktop\Schoolwork\naturesbling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72663202-00A7-4D9F-B943-27DB6275FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636116F8-63CA-4A17-B5AF-94CA93D1C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E49D18E2-B737-C44E-B37C-BE9327529A03}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="610">
   <si>
     <t>Goldstone</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Malachite</t>
   </si>
   <si>
-    <t>Blue Calcite </t>
-  </si>
-  <si>
     <t>Rutilated Quartz </t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>Tourmalinated Quartz</t>
   </si>
   <si>
-    <t>Flamingo Jasper</t>
-  </si>
-  <si>
     <t>Crazy Lace Agate</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>Obsidian</t>
   </si>
   <si>
-    <t>Clear quartz</t>
-  </si>
-  <si>
     <t>Honey Calcite</t>
   </si>
   <si>
@@ -611,9 +602,6 @@
   </si>
   <si>
     <t>Thousand-layer quartz</t>
-  </si>
-  <si>
-    <t>Hematoid quartz</t>
   </si>
   <si>
     <t>Botswana agate</t>
@@ -953,9 +941,6 @@
     <t xml:space="preserve"> is a stone of balance, abundance, manifestation and intention. Called the “stone of transformation” and is used for deep energy cleaning, bringing healing and positive transformation to the wearer.</t>
   </si>
   <si>
-    <t xml:space="preserve"> is a very powerful stone when it comes to soothing and relaxing the emotional body. This stone is known to calm emotions and offers mental and etheric protection.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> stabilizes unsettled emotions and will bring joyful feelings to you and your surroundings. Works on the entire Chakra system and brings a sense of calmness and peace of mind.</t>
   </si>
   <si>
@@ -1028,9 +1013,6 @@
     <t xml:space="preserve"> comforts, harmonizes, protects the heart, and can help attract love later in life. Attracts luck, abundance and success. Has a particularly soothing energy behind it, and is recommended for working through unresolved emotional issues. commonly known as a “stone of personal growth”, and offers opportunities for learning about oneself and one's place in the universe.</t>
   </si>
   <si>
-    <t xml:space="preserve"> helps us reach our highest potential, protecting us from fears and self-doubt. Inspires us to manifest and nurture our dreams. Its energy ignites a passion to pursue dreams and live life to the fullest.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Supports you through times of stress, and brings serenity. Clears electromagnetic and environmental pollution. Aids quick-thinking and promotes organizational abilities.</t>
   </si>
   <si>
@@ -1157,9 +1139,6 @@
     <t xml:space="preserve"> cleanses the aura, clearing energy patterns that have resulted in stagnation. Tourmalinated Quartz helps to integrate and heal the shadow energies. Tourmalinated Quartz helps to release the outworn patterns and reestablishes energetic flow with emotional clarity.</t>
   </si>
   <si>
-    <t xml:space="preserve"> sustains and supports you through times of stress and brings serenity and completeness. Jasper provides a sense of security and absorbs form of negative energy. It balances yin and yang. Jasper clears electromagnetic and environmental pollution.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> crystal is associated with happiness. It is a wonderful source of positive, subtle energy that can be harnessed by everyone. It is not a stone of protection, but of support and encouragement, as it elevates thoughts and promotes optimism.</t>
   </si>
   <si>
@@ -1214,9 +1193,6 @@
     <t xml:space="preserve"> is often used to remove energy cords between people that sap energy and violate boundaries. It is also used for protection from psychic attacks by those who wish to harm (or those who don’t even intend to but their energy is negative or aggressive and might inadvertently do so). It is also said to strengthen the aura, protecting against repeated problems. In physical healing it is thought to be helpful in detoxifying organs and tissues, increasing liver and kidney function and relieving pain.</t>
   </si>
   <si>
-    <t xml:space="preserve"> is considered a “master healer.” It's said to amplify energy by absorbing, storing, releasing, and regulating it. It's also said to aid concentration and memory.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> helps us regain our personal power by easing our troubles and worries during challenging times enabling us to realize we are strong enough to persevere through anything.</t>
   </si>
   <si>
@@ -1241,9 +1217,6 @@
     <t xml:space="preserve"> is seen as a healing stone of calm, good luck and wealth. It tends to have a gentle energy that works on the subtle bodies and energies, they are great for achieving stability and balance in many aspects of one's life.</t>
   </si>
   <si>
-    <t xml:space="preserve"> is a nurturing stone that supports and sustains during times of stress. It brings peace and a feeling of wholeness. Helps us with decision making, especially when we are having a difficult time. It encourages versatility and helps us to accept change. Provides us with emotional growth.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is an excellent blood cleanser and a powerful healing stone. It heightens intuition and increases creativity. It is grounding and protecting. Bloodstone draws off negative environmental energy, helping to overcome influences such as geopathic or electromagnetic stress.</t>
   </si>
   <si>
@@ -1268,9 +1241,6 @@
     <t xml:space="preserve"> amplifies and magnifies healing energy and clears and cleanses chakras. It helps to amplify both body energy and healing thoughts. It is used to enhance creativity. Helps to remove blockages and enhances psychic powers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> is a highly energetic crystal that assists not only in removing negativity, but also transforming and transmuting this energy into tranquility, clarity, and positive Universal light. Containing both the amplification properties of Quartz, with the balance and stability of Hematite</t>
-  </si>
-  <si>
     <t xml:space="preserve"> is comforting and protective, soothing to those who are lonely, easily hurt or grieve a loss. Its quiet energy is particularly centering in meditation, and as a fortification Agate, it supports love and the strength to look for solutions rather than dwelling on difficulties.</t>
   </si>
   <si>
@@ -1356,32 +1326,559 @@
   </si>
   <si>
     <t xml:space="preserve"> is also called the ‘Stone of Universal Light.’ These blue oily rainbows activate, balance, and cleanse all major chakras. It is an energy amplifier, enhancing creativity and psychic powers. Quartz (SiO₂) + Titanium (Ti)</t>
+  </si>
+  <si>
+    <t>Unakite</t>
+  </si>
+  <si>
+    <t>Yooperlite</t>
+  </si>
+  <si>
+    <t>Zeolites</t>
+  </si>
+  <si>
+    <t>Iolite</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Astrophyllite</t>
+  </si>
+  <si>
+    <t>Vivianite</t>
+  </si>
+  <si>
+    <t>Epidote</t>
+  </si>
+  <si>
+    <t>Amethyst Seer Stones</t>
+  </si>
+  <si>
+    <t>Diopside</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Charoite</t>
+  </si>
+  <si>
+    <t>Seraphinite</t>
+  </si>
+  <si>
+    <t>Nuummite</t>
+  </si>
+  <si>
+    <t>Danburite</t>
+  </si>
+  <si>
+    <t>Arfvedsonite</t>
+  </si>
+  <si>
+    <t>Fluorite</t>
+  </si>
+  <si>
+    <t>Enhydro</t>
+  </si>
+  <si>
+    <t>Herkimer Diamond</t>
+  </si>
+  <si>
+    <t>Moldavite</t>
+  </si>
+  <si>
+    <t>Elephant Skin Jasper </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a stone of truth and allowing to recognize and express objectively his feelings. It releases anger and negative thoughts and helps fight your fears and phobias. It creates a clear and perceptive mind, able to find inner peace. It stimulates self-acceptance and self-confidence.</t>
+  </si>
+  <si>
+    <t>Zebra Jasper </t>
+  </si>
+  <si>
+    <t>Amethyst ‘Lavender’ Aura</t>
+  </si>
+  <si>
+    <t>Snowflake Fluorite</t>
+  </si>
+  <si>
+    <t>Brecciated Fluorite</t>
+  </si>
+  <si>
+    <t>Aqua Aura</t>
+  </si>
+  <si>
+    <t>Apache Tears</t>
+  </si>
+  <si>
+    <t>Sunstone and moonstone</t>
+  </si>
+  <si>
+    <t>Spessartine Garnet</t>
+  </si>
+  <si>
+    <t>Yellow Fluorite</t>
+  </si>
+  <si>
+    <t>Crystal skulls</t>
+  </si>
+  <si>
+    <t>Tree-Agate</t>
+  </si>
+  <si>
+    <t>Picasso jasper</t>
+  </si>
+  <si>
+    <t>Dream amethyst</t>
+  </si>
+  <si>
+    <t>Amazonite Smoky Quartz and Lepidolite</t>
+  </si>
+  <si>
+    <t>Blue Quartz</t>
+  </si>
+  <si>
+    <t>Snowflake Obsidian</t>
+  </si>
+  <si>
+    <t>Green Calcite</t>
+  </si>
+  <si>
+    <t>Goddess Crystal</t>
+  </si>
+  <si>
+    <t>Pink Zebra Jasper</t>
+  </si>
+  <si>
+    <t>Green Mica (Fuschite)</t>
+  </si>
+  <si>
+    <t>Green Pistachio Calcite</t>
+  </si>
+  <si>
+    <t>Red Vein Jasper</t>
+  </si>
+  <si>
+    <t>Serpentine w/ Hematite</t>
+  </si>
+  <si>
+    <t>Indigo Gabbro</t>
+  </si>
+  <si>
+    <t>Clear (Colorless) Fluorite</t>
+  </si>
+  <si>
+    <t>Ruby, Fuschite, and Kyanite</t>
+  </si>
+  <si>
+    <t>Pink Opalite</t>
+  </si>
+  <si>
+    <t>Pink Opal</t>
+  </si>
+  <si>
+    <t>Green Flower Agate</t>
+  </si>
+  <si>
+    <t>Lion's Eye Jasper</t>
+  </si>
+  <si>
+    <t>Dendritic Agate</t>
+  </si>
+  <si>
+    <t>Citrine (Baked Amethyst)</t>
+  </si>
+  <si>
+    <t>Quantum quattro</t>
+  </si>
+  <si>
+    <t>Mosaic Chalcedony</t>
+  </si>
+  <si>
+    <t>Palm Root</t>
+  </si>
+  <si>
+    <t>Black Kyanite</t>
+  </si>
+  <si>
+    <t>Pink Fluorite</t>
+  </si>
+  <si>
+    <t>Turtle Carving</t>
+  </si>
+  <si>
+    <t>Anatomical Heart</t>
+  </si>
+  <si>
+    <t>Pink Calcite</t>
+  </si>
+  <si>
+    <t>Chrysanthemum Stones</t>
+  </si>
+  <si>
+    <t>Green Onyx</t>
+  </si>
+  <si>
+    <t>Common Opal</t>
+  </si>
+  <si>
+    <t>Ruby in Albite</t>
+  </si>
+  <si>
+    <t>Blue Amber</t>
+  </si>
+  <si>
+    <t>Garden Quartz</t>
+  </si>
+  <si>
+    <t>Rose Calcite</t>
+  </si>
+  <si>
+    <t>Crystal Phallus</t>
+  </si>
+  <si>
+    <t>Crystal Mushroom</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Obsidian Scrying Mirrors</t>
+  </si>
+  <si>
+    <t>Purple Anhydrite</t>
+  </si>
+  <si>
+    <t>Dendritic Orange Calcite</t>
+  </si>
+  <si>
+    <t>GREEN SANDSTONE (Goldstone)</t>
+  </si>
+  <si>
+    <t>Tri-colored Calcite</t>
+  </si>
+  <si>
+    <t>Titanium Candle Quartz</t>
+  </si>
+  <si>
+    <t>Desert Rose Selenite</t>
+  </si>
+  <si>
+    <t>Cat's Eye</t>
+  </si>
+  <si>
+    <t>Picture Jasper</t>
+  </si>
+  <si>
+    <t>Sunset Aura Quartz</t>
+  </si>
+  <si>
+    <t>Grape Agate</t>
+  </si>
+  <si>
+    <t>Black Moonstone</t>
+  </si>
+  <si>
+    <t>Dendritic Jasper</t>
+  </si>
+  <si>
+    <t>Ajooba Jasper</t>
+  </si>
+  <si>
+    <t>Tree Agate</t>
+  </si>
+  <si>
+    <t>Ruby Corundum</t>
+  </si>
+  <si>
+    <t>Coral Jasper</t>
+  </si>
+  <si>
+    <t>Green Quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> helps to overcome loneliness, learn to love your own company. Brings pleasure back to nature and the older slower way of life. Good for travel, especially driving. Attracts prosperity for business trips and negotiation. Protects home against deterioration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is generally created on a base of real Clear Quartz or Amethyst. These mysterious purple crystals generate feelings of wholeness, happiness, joy and zen. They are also said to channel the spirits of nature and beings from the Faery Realm. Alchemy: Quartz (SiO₂) + Platinum (Pt) + Magnesium (Mg) (+Silver, (Ag))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crystal carries in its wonderfully intricate designs the spiritual qualities of symmetry, beauty, lucid dreams, and even genius. Its name comes from the Latin word fluor, meaning "flow," but today, it is used to describe the crystal's fluorescence - its ability to glow under ultraviolet light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The stone that neutralizes negative energy, stress, and stabilizes your aura. This is a special and rare Fluorite specimen that may also include (but not limited to) opal, Quartz, Chalcedony, and Agate. An excellent learning aid, Fluorite increases our powers of concentration and self-confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a light blue crystal which brings us to our higher self, allowing us to speak honestly, with clarity of mind. Its extremely high vibrations remove insecurities aiding communication and empowerment. Alchemy: Quartz (SiO₂) + Gold (Au)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is said to be a stone of vision, opening the third eye and useful for scrying. It is also believed to be a stone of balance, grounding the self while bringing emotions and spirituality together. Among crystal healing practitioners, unakite is used to support convalescence from illness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are crystals that heal grief. They have a strong action to aid emotional healing and bring you comfort when you are grieving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from South Urals,Russia are one of a kind pairing. The moonstone will stimulate the sacred and divine feminine within. Sunstone, on the other hand, will rouse your strength, passion, as well as a sense of direction and order. When combined, these two crystals will align you and promote a deeper balance within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a powerful stone for attraction and manifestation, teaching us how to transform our visions into reality. It gives us confidence, strength and vigor, and inspires our creativity. When we are attracted to Spessartine Garnet, it is a sign that we are ready to move to a higher level, spiritually or materially, and live more fully alive. Ignites within us a fierce desire for self-realization and gives us the strength to endure both spiritual hardships, as well as the more prosaic everyday struggles in the pursuit of our dreams. A very joyful stone, showing us the incredible beauty of this world and reminding us how truly fortunate we are. Helps us to see challenges as adventures and to move with both passion and serenity, as the situation calls for. It also increases the flow of chi energy through our bodies and clears away any negative energy that has become stuck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enhances creativity, being particularly effective for people in group situations. It clears, stimulates, and heals all powers of the mind, such as psychic ability and healing, visualization, and intellect. Yellow Fluorite removes toxins from the body</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intensify and amplify the power of intention and hold the specific frequency and resonance of a desired outcome. Crystal skulls carved out of the gems and minerals can aid with the specific areas or issues. Crystal skulls can be programmed and directed by desired intention for supporting the healing of oneself and others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are mostly used for the detoxification of bodies as it is believed to have healing properties for both physical and metaphysical state of body and mind. It helps you eliminate toxins from the body and makes it pure and fresh. Besides that, it also helps to eliminate negative energy from the mind of a person or a place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is an excellent stone to use as a personal talisman. It will help your body gain physical, emotional, mental, and spiritual strength. It will give you the stamina to handle everything that you're supposed to do and everything that's expected of you. It will also give you a sense of your own power!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is said to make for an excellent meditation stone. Has the ability to renew lost friendships or to help guide during relationship transitions. This stone is said to promote inner clarity and interpretation of one's own thoughts. Associated with the base, sacral and solar plexus chakras. Is believed to help break through blocks and aid an individual in manifesting their imaginative ideas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activates the Third Eye, Crown, and Soul Star Chakras. It connects you to the higher realms, your angels, and spirit guides. Dream amethyst is a powerful crystal for enhancing psychic ability and deepening intuition. This gem is healing, clearing, and detoxifying and perfect to work with on your path towards wholeness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will transmute any negative vibrations surrounding your ability to communicate openly and clearly, making way for honest, healthy, confident, and clear expression. A wonderful healer for the emotional body. It soothes trauma and calms the mind, alleviates worry and fear, and directs anger and irritability into a more positive action. It regulates the aggressive aspects of one’s personality and urges the mind to seek emotional balance. Balances feminine and masculine energy. It promotes kindness and practicality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will give you a clearer vision and help you achieve emotional distance when you need to process challenging life situations. It’s a stone that resonates with the energies of the light. It can offer physical protection against sickness. Iolite was referred to as the Viking’s Compass because it was used to find the direction of the sun on those really overcast days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gives strength. It promotes vigor, steadfastness and stamina. Imparts self-confidence, helping you to be at ease in your surroundings. Onyx banishes grief, enhances self-control and stimulates the power of wise decision-making. Can be used for grounding, protection, and self-control, and as a shield against negative energy. It also enhances discipline, allowing more ease in following through on goals and completing tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a gentle stone to inspire great personal growth. It reveals our path forward and help us to walk it gracefully and confidently. Blue Quartz helps us to stay calm and centered during times when our life is disrupted or at a crossroads, transforming from one stage of life to another. It reminds us that each stage of life is a wonderful opportunity all its own</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is an important stone for business ventures and makes an excellent talisman for anyone conducting financial transactions. It will help you visualize yourself working, earning, and using money purposefully and creatively. It can also improve your mental faculties so that you can achieve mental clarity and exercise sound judgment. A powerful and potent cleansing stone meaning it can go straight to work helping organs to heal from toxins. It is known to help the kidneys, the bladder, the spleen, and to balance out fluid systems in the body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a crystal ally during the lonely days and nights when life is bleak, and we feel lost. It reminds us that we are resilient and that we have the ability to reshape our life into something that brings us pleasure and peace. Helps us survive shock and trauma and to endure the slow trudge back to healing and happiness. Gives us clarity and sharpens our intellect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> infuses your entire system with light, and may assist you to recognize your purpose for being here as it illuminates your true self. Also called the “marriage stone” as it promotes fidelity, truth and complete honesty between partners in a relationship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brings a renewed sense of purpose and vitality and a desire to make positive change in ones life. It encourages forgiveness of oneself and others and brings softness to the heart, stimulating compassion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Representing fertility and the divine feminine power Perfect for connecting with feminine energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> holds the energy of balance, uniting the energies of the masculine and feminine, Yin and Yang. It also balances the chakras, and the physical, intellectual, emotional and etheric bodies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is the nurturing stone of contentment, it offers protection from both physical and spiritual harm. Good for grounding during meditation and when doing spiritual work with the higher realms, it also helps to stimulate the transition from the material plane to the astral plane during meditation. A very calming stone, and helps heal the heart chakra from bitterness and anger, it stimulates the root chakra and is particularly effective at protecting your aura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diminishes nervous energy, calms an overthinking mind while positively enhancing intellectual pursuits and mental situations. Mica may be used to help treat insomnia and diminish the sleeping requirements of mononucleosis. Mica may also be used to help relieve conditions of dehydration. It's green color comes from the natural addition of Chromium to its genetic compound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> facilitates physical healing by clearing negative emotions &amp; encouraging relaxation. This stone green vibration opens your sacred heart to receive love from the spiritual realm &amp; encourages tolerance, compassion, and understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is believed to strengthen our circulatory system and to be beneficial to our blood and liver. It is thought to be good for general and non-specific aches and pains. It is also a valuable stone to keep around when we wish to detoxify our body. Red vein Jasper is a "sustaining" stone and can be there for us when we need help for a long time or when extended periods of hospitalisation are necessary. Red Vein Jasper can both calm and balance our emotions and bring us peace of mind. It helps to instil in us strength, stability, courage, leadership and power. In short, it helps us to not just cope with life but to meet it head on. However, it also reminds us that we are not just here for ourselves and that we must do all we can to help others and bring joy into their lives too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grounds and protects us. It strengthens our connection with the earth, making us feel safe and secure. It endows us with courage, strength, endurance and vitality. Hematite is a "stone for the mind", stimulates concentration and focus, enhancing memory and original thought. Serpentine provides a clearing of thought to better facilitate meditation. Serpentine is said to clear clouded areas of the chakras and stimulate the crown chakra, promoting spiritual understanding and psychic abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instills strength, confidence and inner peace with its unique ability to keep us grounded while simultaneously opening up our Crown Chakra. A very protective stone, Indigo Gabbro has the ability to absorb, clear and transmute all harmful negative energy, including from sources of EMF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a mental clarity stone – inspiring, elevating and stimulating to the Crown Chakra. It cleanses and energizes the aura, harmonizing the mind and spirit. This crystal allows for a shift in perspective so one may recognize the difference between struggle and the need to perpetuate it. It helps alleviate emotional turmoil, feelings of guilt or shame, and pressure from others. Clear Fluorite enhances the energies of other stones and is excellent for crystal healing layouts. It may be used to align all of the chakras, bringing universal energy into the physical body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> helps us to understand and communicate our own emotional reactions. It gently reminds us that there are many ways to look at a situation – and some of those perspectives are wildly off base! Helps us to determine which is the most correct perspective – which is usually the one that leaves us feeling empowered, calm, compassionate, and ready to do what is necessary. Helps us to find our voice, follow our bliss, and be true to ourselves. It is a stone of courage, clarity, and joyful passion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is excellent for removing energy blockages of the meridians and chakras. Helpful emotionally by assisting transitions during changes of all kinds, engendering persistence and emotional strength, and verbalizing hidden or secret feelings. Brings in the energies of unconditional love, joy, happiness, abundance and assist with transformation of older stagnant energies and emotions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a compassionate and nurturing stone, encouraging one to be their authentic self, without worrying what others think. Pink Opal can calm anxious nerves, balance and center emotions providing a sense of peace and tranquility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activates the Heart Chakra and is a gentle stone of evolution. It fills your heart with passion and peace. An incredible gem for stress relief and easing feelings of restlessness. Assists you to filter through fear, clearing the path for you to grow and unfold into your highest potential. It radiates positivity and is an excellent stone to work with to reduce and harmonize nervous energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is great for connecting to the earth. It's great for manifesting, healing and meditation. A good stone for protection and absorbing negative energy including electromagnetic energy. It can help you go after your goals while leaving procrastination behind. Jasper is a stone that gives one the courage to speak out and have personal independence. All jaspers help balance the emotional energy in the body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brings stability in times of strife or confusion. Lends perseverance and the ability to see difficulties as a challenge. Opens and aligns the chakras. Dendritic Agate resonates with blood vessels and nerves. It heals the nervous system and conditions such as neuralgia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potent healing crystals to use to aid manifesting abundance and prosperity, but it also has other properties, including to relieve fear and anxiety. Enhances physical stamina and energy, supports the endocrine system, and encourages proper metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a combination of four healing stones: Chrysocolla, shattuckite, smoky quartz, and malachite. Quantum quattro is only found in Namibia and is known to be a cell-level healer – meaning it goes right to the root of health challenges to remedy the dis-ease or illness at its source. It brings deep detoxification and rejuvenation and helps remove all impediments to your well-being. This gemstone also eases the symptoms of stress and balances all the chakras. Quantum quattro is a master healer and an essential stone for any Reiki practitioner or energy worker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a nurturing stone that promotes connectivity and goodwill. It’s also an absorber of negative energy and a harmonizer. Mosaic chalcedony aligns the body, mind, and spirit, bringing everything into greater harmony. It helps you balance difficult emotions like anger and creates a space through which generosity and joy can flow. This stone eases self-doubt, replacing it with enthusiasm and receptivity. A stone of emotional mastery that realigns body, mind, and spirit. It’s the perfect gem to work with when feeling out of sorts because it helps to ground and bring you back to center.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is an excellent grounding stone as it assists to dissolve fear and clear confusion of current life situations. Release negative behaviors and eases feelings of depression or anxiety. Brings physical and energetic protection. Balances and soothes emotions. Can aid in expanding positive beliefs to uplift one’s mind and body. Revitalizes one’s life force or chi energy. Use in meditation as its energy overtime can assist to make changes in life. Reveals the pathway for self-discovery and supports patience and a gentle transformation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a stone that helps one dive deep into their heart, healing wounds old and new. It brings gentleness and awareness to some who may not normally tend to share these qualities while bringing compassion about yourself and others around you. Vivianite is a stone full of peace and love and will relight the care you may have lost for the closest people around you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amplifies the third eye giving access to receive energies from other realms to amplify channeling and psychic abilities. It's a great tool to use for lucid dreaming and astral travel. It also increases telepathy, helping communicate with people remotely, as well as higher beings. It is used by channelers to enhance connection to the spirit realms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has the ability to increase your energy levels and is useful for strengthening the physical body. This stone facilitates a more complete assimilation of nutrients. It stimulates the immune system and aids in the healing process. Epidote encourages recovery and regeneration after severe illness of in the case of great exhaustion caused by over work, stress, and painful experiences. It lifts the emotions and dissolves sadness, sorrow, self-pity and grief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has a gentle angelic energy that encourages self-love and appreciation. Calms stress energy and promotes peaceful rest and sleep. Works exceptionally well on tension and worries. It can calm a troubled mind and cool anxiety, nervousness and apprehension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> also known as Window Stones are generally Quartz that have been naturally tumbled in rivers. Seer stones have been used as an aid to scrying for a long time as it can show you the past, future and present by taking you deep within your inner self.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expands love on every level, promoting emotional well-being and the ability to love oneself and others, as well as to receive love. It is an empowering stone that is particularly helpful in bringing out and balancing the feminine and masculine energies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding the way to move forward and live through heavy times. The turtle energy is divine and pure, one that will help you keep grounded and, at the same time, become a spiritual awakened being living in a materialistic world. Turtles represented fertility and used to help Celtic shamans keep themselves grounded when traveling between the earthly and spirit worlds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a symbol of royalty, strength, good luck, and power. They can symbolize wisdom, longevity, regeneration and also have magical powers, and symbolize water in all Asian cultures. Dragons provide the fight when the body is ill, and the mind is weary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> represents our most powerful organ, and the symbol of life and love itself. It embodies the energy of deep spiritual love and is one of the foremost stones representing the Feminine Principle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brings forth the "happy". It will connect you to memories and feelings that remind you of when you were at your happiest. Soothes the heart from conflict and confusion. It softens the sting of anger and overwhelming frustration. They also aid the removal of negative energy from the body, and they assist with the elimination of sluggish energy. They are excellent to stimulate mental energy, which may improve your memory. Helps you to let go of the past and to step forward into the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a stone for overcoming and releasing fear and negativity. It allows one to recognize and examine the cause of unconscious fears, as well as deeply rooted, internalized negativity, and to discriminate between what is real and what the mind has created. Its cleansing energy aligns the heart and intellect and allows one to see oneself, and others, through a spirit of unconditional love and acceptance. It encourages flexibility and “letting go” of negative vibrations and inspires one to move forward in relationships and in viewing the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> might look painted or like fossils, but they are actually natural crystals that formed during the Permian age, or 248 to 290 million years ago. Said to bring good luck, good fortune and great opportunities. It is associated with the Heart and Crown Chakras and is an excellent companion for meditation. Lends the courage to make decisions and to leave one’s comfort zone. It is a marvelous talisman of change for remaining open to new possibilities. This stone is excellent for finding a relationship later in life after devoting one’s life to caring for others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is used to promote good health and wellbeing, along with promoting self-love and self-discovery. Also known as a calming stone, Green Onyx can alleviate your fears and provide comfort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> works best at the subtle energetic level. An excellent stone for cellular regeneration. Activates the spinal cord and its links to the etheric body, especially behind the heart and can release muscle tension up into the neck. Useful for overcoming chills and can promote weight loss. Has a wonderfully high vibration and is thought to assist one when working on a path to move to the next level of being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is an emotional stone and reflects the mood of the owner. It intensifies emotions and releases inhibitions. Encourages both freedom and independence. Enhances cosmic consciousness and induces psychic and mystical visions. It stimulates originality and creativity. Helps to release anger and claim self-worth, aiding in accessing and expressing one’s true self. It encourages an interest in the arts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> encourages us to "flow" with situations and with relationships. It can enhance our levels of tact and co-operation, provide insight into issues, and encourage action. It stimulates both the mind and the emotions. It can also help us to sustain our levels of confidence and to overcome our fear of the unknown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will help calm and stabilize the mind and body in preparation for a deep relaxed state, it is a stone to help bring the deeper state of mind on the intended focus point. Nuummite is also very good to enhance the dream state, bringing insight and psychic visions in an appropriate manner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a protective stone and one that brings us wisdom, patience and a sense of balance. It has a calming and cheering influence and helps us to feel less stressed and more carefree. It encourages clarity of thought, creativity and decision making, helping us to bring our desires to fruition. Amber provides us with a link between our everyday selves and the realms of spirituality. It provides us with psychic shielding and, in addition, promotes within us the desire to do good for our fellow human beings, simply for the pleasure of doing so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a gorgeous stone of included quartz (Lodolite). The stone stimulates the creative mind, sharpens your awareness of your Destiny &amp; life path, and encourages your inner dreamer. Perfect to work with if you feel you need a change in your life, if you need to find a new direction, and if you want to embark on a new quest in your love life, personal life, or career.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is known for its pure, and high vibration; its energy is said to activate both the higher levels of consciousness and the academic mind. It is a lovely meditation stone as it encourages you to access your inner guidance. A powerful heart chakra stone It is said to assist in releasing emotional blockages whilst increasing acceptance of one’s self and of others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> helps you see the light within yourself. It sparks your appreciation for your true nature and allows you to be comfortable in your own body. Use at your Third Eye Chakra for spiritual growth. Has the ability to provide you with constant reassurance, no matter how many times you fail. By awakening the Divine Light, Arfvedsonite will also help you attract more and more light so that it fills up your being and soul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a deep emotional cleanser, healing emotional wounds tied to love, self-love and relationships. A Heart Chakra stone, Rose Calcite resonates with the wishes that dwell within. It absorbs all negativity, laziness, criticism and stubbornness from the heart and can also help channel communication between the heart and the mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> used in many cultures to convey strength, power and fertility. It can be used to promote sexual healing and clear stagnation caused from sexual trauma and shame. Also represents the divine masculine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a symbol for kundalini energy and enlightenment. The stalk represents the spine and the little cap at the top of the stalk represents the opened crown chakra. They also symbolize good luck and good fortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Called the “Stone of Successful Love,” Emerald opens and nurtures the heart and the Heart Chakra. Its soothing energy provides healing to all levels of the being, bringing freshness and vitality to the spirit. A stone of inspiration and infinite patience, it embodies unity, compassion and unconditional love.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a stone heralded for its spiritual detoxification abilities and tendency to transform negative energy into positive energy, boosting our mental clarity and promoting peace of mind. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has been a part of many different cultures. They are great tools to be used in energy &amp; spiritual work. They can aid in "seeing" deeper into the past, shadow, &amp; deeper issues needing to be addressed. Before they explode. This also protects from psychic attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaches you to accept all the experiences that life has brought, good and bad. This nurturing stone can even guide you in releasing the wounds of the past and trauma that was endured in past lives. Helps to promote loving communication with those who have a different point of view. Assists one release old behavior patterns of vengeance, anger, and resentment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ideal stone for self-examination, and it will remove your self-imposed limitations and behavior patterns that create your life experiences. It will help you make the necessary behavioral changes that will help your desired results. It will stimulate creativity while welcoming joy, creativity and pleasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will assist one in recognizing and/or understanding the true feelings of another, supporting the empathetic nature. It contains a life sustaining energy, assisting in healing in many ways. This makes them an excellent tool for relationship work. Utilize this crystal to enhance empathy towards another, enabling the knowledge of the other person's perspective, and helping progress to occur in the relationship. Since water is the element that is symbolic of emotions, working with the Enhydro Crystal can help one to achieve significant growth in this area. When doing any emotional work, it is important to understand that emotions can be a guidance system to help us navigate through our lives into a desired direction. When emotions are particularly unpleasant, one must recognize them to be a sign that we are on the wrong track, and make adjustments accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connects with the Heart Chakra and is especially good for emotional healing. The copper contained in it makes it very effective for physical healing, especially for pain and inflammation. It is a nervous system stimulant and enhances the transmission of healing energies from the hands; therefore it is applicable to long distance healing. Green Sandstone is a good deflector of unwanted energies, and is highly regarded in the spirit realm as a protection mineral. It is also associated with abundance due to the combination of its gorgeous green color and reflective shimmer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with its pure, crystal light, clears the chakras, opening channels for spiritual energy to flow. It stimulates conscious attunement to the highest level, and is particularly helpful in activating and opening the Crown and Third Eye Chakras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> detoxifies, improves memory, and is a stone of new beginnings. If you’re ready to let go of worry and move forward with all that you’re being called to create, use this calcite. It raises vibrations gently, restores motivation, and accelerates growth and spiritual development. working with this variety of calcite clears emotional blockages, elevates the spirit, and eases feelings of sadness and discouragement. It awakens your willpower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you will experience massive life force energy that is capable of removing bad habits, altering personal priorities, and in some cases completely overhauling your life path. Think of Candle Quartz as an amulet of rebirth, that reverberates our own energy into motivation, confidence, and self-appreciation. Titanium ‘Rainbow’ Aura is also called the ‘Stone of Universal Light.’ These blue oily rainbows activate, balance, and cleanse all major chakras. It is an energy amplifier, enhancing creativity and psychic powers. Quartz (SiO₂) + Titanium (Ti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is composed of the minerals Gypsum (Selenite) and Barite. They have a rosette shape that is caused by wind, sand and other particles becoming embedded into its surface while it was forming. Each Desert Rose is said to hold a Spirit Guardian unique to the stone providing protection and guidance. Linked to the Root and Crown Chakras helping to keep us grounded and protected from negative energy, as well as purifying our own energy. It gently teaches us that the ups and downs of life are what make life worth living and to not dwell too much on any of them but live in the present moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acts to stimulate intuition and to enhance awareness. It is a grounding stone that provides a very effective protective energy. Cat's Eye dispels unwanted energy from the aura. It amplifies good luck and fortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a grounding and harmonizing stone with a strong connection to the earth. Its grounding energy can give you a strong sense of who you are, where you’ve been and where you are going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raises the vibrational energy within yourself allowing for joy and self-confidence to flow. Stimulates Solar and Sacral chakras so that it allows one to be creative and let inspiration flourish. Ignites your inner flame of passion, desire and creativity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a tranquil and gentle stone. It promotes inner stability, composure, and maturity. It's warm, protective properties encourage security and self-confidence. It allows for deep and intense levels of meditation in a short period of time. Grape Agate is a crystal of dreams, intuition, and luxury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> holds the energy of the New Moon and new beginnings. It also has gentle grounding and protection properties. A calming stone with feminine energy that cleanses the mind of negative thoughts and feelings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is a stone that brings clarity of mind and sharp thinking. A very good for writers and inventors. It is a stone that encourages creativity and idealistic thinking. Aside from its manifestation properties, it eases stress and tension and has an immediate calming effect on the nervous system. It encourages positivity, mindfulness, and brings strength, especially when walking through challenging situations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a very nurturing stone that can strengthen your connection with the earth while aiding those who are in physical pain. There to support you through times of stress and hurt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is known as a wellspring of inner peace. This is why they are used in prayer and meditation. Meditating with a green tree agate stimulates spiritual and emotional calm. The stone is also believed to create a deeper and stronger connection to nature. It is said that placing tree agates in a garden or somewhere near the home can attract animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is useful in detoxifying the body, blood, and lymph, and is helpful in treating fever and infections. It stimulates the adrenals, kidneys and spleen, and aids inadequate circulation or energy flow in the feet and legs. It encourages “following your bliss,” teaching one to enjoy being in the physical world and perceiving the spiritual energy that exists throughout the realm of matter. It offers lessons in mastering the transformation of thought and intent into physical manifestation in order to change one’s world. It is excellent for grounding and overcoming mental overload, and is a great support during times of stress or when there is a lengthy sojourn before having the opportunity to rest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has metaphysical properties that enable you to surpass time. For that reason, many individuals find the stone useful when they would like to engage in a past life or explore the path that their soul is taking in any direction of time. Healers use moldavite to assist with removing emotions and clear the aura of any undesirable baggage from a past life. It is believed to raise a sense of self-awareness and assist people who are looking to uncover emotions or feelings which keep them stuck in unhappy situations in the present. Those people will be able to uncover those things that are trapping them in an unhappy present and move forward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> helps with self-expression and speech by removing fears, anxiety, and emotional blockages. It improves one's self-esteem and confidence through right speech and actions. It is an excellent stone to aid transition as it banishes negative patterns like procrastination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is excellent for stimulating creativity and intuition. It has the ability to transform negative energies into positive energies, can bring success and prosperity and also attract abundance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1411,6 +1908,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF464848"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1432,26 +1957,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1459,33 +1980,57 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,1800 +2346,2466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A00AAD7-AA80-2A4D-8E81-32FD6C898F31}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.796875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="134.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="11"/>
+    <col min="3" max="3" width="11.19921875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="7" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="8" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="10" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="14" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="17" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="19" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="20" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="30" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="34" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="35" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="36" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="37" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="38" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="39" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="40" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="41" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="42" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="43" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="44" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="45" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="46" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="47" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="50" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="51" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="53" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="54" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="55" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="56" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="57" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="58" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="59" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="61" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="62" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="63" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="65" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="66" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="67" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="68" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="69" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="70" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="71" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="72" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="73" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="74" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="75" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="76" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="77" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="78" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="79" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="80" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="81" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="82" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="83" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="84" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="85" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="86" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="87" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="88" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="89" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="90" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="91" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="92" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="93" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="94" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="95" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="97" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="98" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="99" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="100" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="101" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+    <row r="103" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="108" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="4" t="s">
+    <row r="109" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="110" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="112" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" s="4" t="s">
+    <row r="113" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="114" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+    <row r="115" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="117" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    <row r="118" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B115" s="4" t="s">
+    <row r="119" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="4" t="s">
+    <row r="120" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B117" s="4" t="s">
+    <row r="121" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="4" t="s">
+    <row r="122" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" s="4" t="s">
+    <row r="123" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" s="4" t="s">
+    <row r="124" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B121" s="4" t="s">
+    <row r="125" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B122" s="4" t="s">
+    <row r="126" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B123" s="4" t="s">
+    <row r="127" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B124" s="4" t="s">
+    <row r="128" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B125" s="4" t="s">
+    <row r="129" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="4" t="s">
+    <row r="130" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B127" s="4" t="s">
+    <row r="131" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="4" t="s">
+    <row r="132" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" s="4" t="s">
+    <row r="133" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" s="4" t="s">
+    <row r="134" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" s="5" t="s">
+    <row r="135" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B132" s="6" t="s">
+    <row r="136" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" s="5" t="s">
+    <row r="137" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" s="6" t="s">
+    <row r="138" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B135" s="6" t="s">
+    <row r="139" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B136" s="5" t="s">
+    <row r="140" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B137" s="5" t="s">
+    <row r="141" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="5" t="s">
+    <row r="142" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" s="5" t="s">
+    <row r="143" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" s="6" t="s">
+    <row r="144" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="5" t="s">
+    <row r="145" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B142" s="4" t="s">
+    <row r="146" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B143" s="4" t="s">
+    <row r="147" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B144" s="4" t="s">
+    <row r="148" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B145" s="4" t="s">
+    <row r="149" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B146" s="4" t="s">
+    <row r="150" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
+    <row r="151" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B155" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B156" s="4" t="s">
+    <row r="160" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B157" s="12" t="s">
+    <row r="161" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B158" s="12" t="s">
+    <row r="162" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="4" t="s">
+    <row r="163" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B160" s="4" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" s="3" t="s">
+    <row r="165" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B162" s="4" t="s">
+    <row r="166" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B163" s="4" t="s">
+    <row r="167" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164" s="12" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" s="4" t="s">
+    <row r="169" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" s="4" t="s">
+    <row r="170" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" s="4" t="s">
+    <row r="171" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B168" s="4" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A169" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B169" s="12" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B170" s="4" t="s">
+    <row r="174" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B171" s="12" t="s">
+    <row r="175" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B172" s="4" t="s">
+    <row r="176" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B173" s="4" t="s">
+    <row r="177" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174" s="4" t="s">
+    <row r="178" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175" s="4" t="s">
+    <row r="179" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176" s="4" t="s">
+    <row r="180" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B177" s="4" t="s">
+    <row r="181" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B178" s="4" t="s">
+    <row r="182" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
+    <row r="183" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A181" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B181" s="12" t="s">
+    <row r="185" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A182" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B182" s="4" t="s">
+    <row r="186" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A183" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="12" t="s">
+    <row r="187" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" s="4" t="s">
+    <row r="188" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" s="4" t="s">
+    <row r="189" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" s="4" t="s">
+    <row r="190" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" s="12" t="s">
+    <row r="191" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B188" s="4" t="s">
+    <row r="192" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B189" s="4" t="s">
+    <row r="193" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A190" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B190" s="4" t="s">
+    <row r="194" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A191" s="9" t="s">
+    <row r="195" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B191" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193" s="4" t="s">
+      <c r="B197" s="15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194" s="4" t="s">
+    <row r="198" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195" s="4" t="s">
+    <row r="199" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196" s="4" t="s">
+    <row r="200" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" s="4" t="s">
+    <row r="201" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="16" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" s="4" t="s">
+    <row r="202" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A199" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" s="4" t="s">
+    <row r="203" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A203" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" s="4" t="s">
+    <row r="204" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A204" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201" s="4" t="s">
+    <row r="205" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202" s="15" t="s">
+    <row r="206" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A206" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B203" s="17" t="s">
+    <row r="208" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A204" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="3" t="s">
+    <row r="209" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" s="6" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" s="3" t="s">
+    <row r="211" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="16" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" s="18" t="s">
+    <row r="212" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A208" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" s="4" t="s">
+    <row r="213" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A213" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A209" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B209" s="4" t="s">
+    <row r="214" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B210" s="4" t="s">
+    <row r="215" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A215" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="16" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B211" s="4" t="s">
+    <row r="216" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A212" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A213" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
     <row r="217" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B217" s="18" t="s">
-        <v>434</v>
+      <c r="A217" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>435</v>
+        <v>454</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>436</v>
+        <v>455</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B220" s="18" t="s">
-        <v>437</v>
+        <v>456</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B221" s="18" t="s">
-        <v>438</v>
+        <v>457</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B222" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A228" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="7"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A285" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A286" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A287" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="B287" s="21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A291" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B291" s="22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A293" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A294" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B294" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A295" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>609</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
